--- a/biology/Zoologie/Bistonina/Bistonina.xlsx
+++ b/biology/Zoologie/Bistonina/Bistonina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistonina est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été créé par Robert K. Robbins (d) en 2004.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bistonina bactriana (Hewitson, 1868)  présent au Brésil et en Guyane.
 Bistonina biston (Möschler, 1877) présent au Surinam, au Guyana et en Guyane.
 Bistonina erema (Hewitson, 1867) présent au Guatemala, au Surinam, non confirmée au Guyana et en Guyane.
 Bistonina feretria (Hewitson, 1878).
 Bistonina mantica (Druce, 1907)  présent au Brésil.
-Bistonina olbia (Hewitson, 1867)  présent au Brésil et en Guyane[1],[2].</t>
+Bistonina olbia (Hewitson, 1867)  présent au Brésil et en Guyane,.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bistonina sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bistonina sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Bistonina, sur Wikimedia CommonsBistonina, sur Wikispecies
 </t>
